--- a/reports/test_results.xlsx
+++ b/reports/test_results.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kết quả kiểm thử" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tổng quan" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +495,11 @@
           <t>Result</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,7 +512,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'success': True, 'message': 'ok', 'token': 'Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYyNDQ1OTI0LCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMDkwOTkyNCwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTA2VDE2OjE4OjQ0LjE4NTQ4NTAzNVoiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMDZUMTY6MTg6NDQuMTgyWiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.hHIJMJLEp1569wcX6905TfwiF9tf8VaXov6nMbke8Aiz8YLCFp7JMN1PTpbNQD8qDHcLFJQwr3gmcNR-IQcumEhhgqZIW6mPI635nwkj2SDzUMlrWNUkvxjXN1WjyPunyTk2UzXpnlWeZitShhSptnN1HJr63BvccJWlifbIFVhJt--CE14k4Jk4T_DogK3KY9fVBFV3dTJwD02k9AkUZKcPj8amVJvsfIkdgUQ-6t1GRAvME78vGF8YX4MDmAF2uMsxnSWWDC97cbceUMkNi2w4wM7_BRNlbiAyeupIasBv2FpuT0bSWbrFIInNfzouXdZpb7cOAiAVF9cmmWbCBbk7jwnOR5wd3X2FB-bRTrDS_KQEkcZ2nS7I8rdjW7HsLO44wZ0BRAf02Pb1U1YmZruqnHs3oQvISi08g4cec4Q8j8HQKYiYN8lYhEhZ5m1ev_NIIJCcqIZEiRrhJfVFS7OHn_FwrAR9IYG-Zzhb9jx_qYiS_EL5hBK6a4LzddXJMqIfMKNJwyIlBTEGg12SOMCnkKyVCegTDAtPZdoK21yBQ9eFOPxijIwleTjb6elxtegv9-x-9R4ylPnx1R8Ae5_qERr9s_-ZOBeuGh-bm0J6OHhghc4QfMQnx__b5HkVBfmwBh86gsV3EQqbgY0DHhp4FkerUFzTRpHnc2kHp48', 'user': {'code': '62d671e13a1f043b9ebf90fd', 'username': 'admin', 'full_name': 'Admin', 'avatar': '', 'email': '', 'phone_number': '', 'role_code': 'admin', 'trade_code': '', 'pos_codes': None, 'gender': '', 'date_of_birth': None, 'address': {'area': {'code': '', 'name': ''}, 'city': {'code': '', 'name': ''}, 'district': {'code': '', 'name': ''}, 'ward': {'code': '', 'name': ''}, 'text': ''}, 'pos_code': '', 'is_collaborator': None, 'referral_code': '', 'phone_number_verified': True, 'default_pos_codes': None, 'apartment': None, 'labels': None, 'daily_wallet_transaction_limit': None, 'children': None, 'social_networks': None, 'default_pos_code': '', 'status': True, 'login_at': '2024-11-06T16:18:43.674Z', 'created_at': '2022-07-19T08:57:05.306Z', 'updated_at': '2023-04-20T02:46:56.14Z'}, 'new_user': False}</t>
+          <t>{ "success": true, "message": "ok", "token": "Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYyNTkxMTQyLCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMTA1NTE0MiwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTA4VDA4OjM5OjAyLjY2MTU2OTA1MloiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMDhUMDg6Mzk6MDIuNjU3WiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.HAO5qXMfLBzjigidUqOX9wauBkPKskLsrhIY9DCajUuIKeQ8tnfH6CA3zcCER_pjyPLF-0C_9UjiB_A7u-7IHRweILVqRZALnt2LPWHOmct0mW1NV0rfpBjhWUNWYgBrYvZGTWQv1YuBybfg_t7OXi4l7-wNCj3GXZ7yU6g0uYtLtt6K6OPQKgHpXITTfSjub9SOMJfBnsBaP0OSLMI171DxVpUgN_SHuy47Oc6d-_IufNMqelzrp28S9bkzxG84b_AiNikK_wW4N58FVVd03gNp_B_ULacfKIFAQPeXyZ5hogvNH254T3hkKUkODh0sK5Nk1EiPGT_Mr3uzB1GfahLyC3g5PuKZnN7hZ3ykscgYxgPZ_0THUxfVR9BgJy3yycV7WIFj3uaDv5tRZO2Vnq1EqYVT7_jFYEzuACMslhHK7o3SMaJKxnNJH4Lfcek6BouaZk9bsFsPICHp7WxHuY2Sh2bXDiLyPvxZkxMn8gif0AnaS-w4VsVoC2cgg8k0sUYAuNwRWmY6aZJ02S763YNWpBrMzy9DynXEZ2LkYPmibKCaeLlWnVeysqzHTo-lR5Bk6gOneyXQfx_oDhyMeN8gIG6oFoSqC4fZIr2HIDcW7bG0VBrqZnWQZNYVZK-BiOEMUjw4uYsJSzIyfba8Ucm-VxLSS1xA5B7uliLdMuA", "user": { "code": "62d671e13a1f043b9ebf90fd", "username": "admin", "full_name": "Admin", "avatar": "", "email": "", "phone_number": "", "role_code": "admin", "trade_code": "", "pos_codes": null, "gender": "", "date_of_birth": null, "address": { "area": { "code": "", "name": "" }, "city": { "code": "", "name": "" }, "district": { "code": "", "name": "" }, "ward": { "code": "", "name": "" }, "text": "" }, "pos_code": "", "is_collaborator": null, "referral_code": "", "phone_number_verified": true, "default_pos_codes": null, "apartment": null, "labels": null, "daily_wallet_transaction_limit": null, "children": null, "social_networks": null, "default_pos_code": "", "status": true, "login_at": "2024-11-08T08:22:54.046Z", "created_at": "2022-07-19T08:57:05.306Z", "updated_at": "2023-04-20T02:46:56.14Z" }, "new_user": false}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,13 +520,13 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"message":"ok","token":"Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYyNTM3ODAyLCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMTAwMTgwMiwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTA3VDE3OjUwOjAyLjA3OTgyMjEwOFoiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMDdUMTc6NTA6MDIuMDc2WiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.CAc1LrUvS0-nCLpZlInvLYIEd2FepFJxprBpwXdjiaR2hbLe8ZzIig7g8JL_4XwWhYUpdi9tjSeMGqE3r5Gyc_NTrVYWlbkbmYLre5Hj3s0iStcY2qxVY8ACzWOnGB7no8n80iWMjWdTLm7ZsxjivLVmvR-AcJ-KiXh10tv92UZb2iOQcHYVXdKoeFCW8m3Q12EsVD_LvehM3tPLqauEIKRxjiK2oU44wVdbKTMe6duU7f-qy_60dNSYzaRR7P2W2cER4J_V3OYq3eUThWgO55OwFMA1QgZBtn6x81DnGd_sscLwdMetg4SXqsH_0ToiEQKbIWG3PxWP0ZKqJmSxnxUUHltg72KSFlGyuo8cOgJG-G_RaseWnIRyhgPYO0X0Efmbyr1tMId7ZxK9TgXg3h_92Z7HdU8iTFHLfdCfvU71q_Fnddw4QB6qLBWmhDig722pWk9flUcJ42CCo2Ie7-u45aTZV4H0Uw9ER6UK_Xy2Sb-25IfidjGP35H6QgK9ClguOXmYpS8HlIOpT_s5xFoIA3MAQpqYFG56MglY21WCBgbIvPHbCzXnvv5tIYkmdMCKOpQzr7-cEYsrGmfiFL-nm7OwkEQM4JDWimLWOj-JbR8EYq0wn4CYeIIiWJAG7UPjn3HNoSVkB5FaHntnwDiIiptV8yIe043Fy3hdEt8","user":{"code":"62d671e13a1f043b9ebf90fd","username":"admin","full_name":"Admin","avatar":"","email":"","phone_number":"","role_code":"admin","trade_code":"","pos_codes":null,"gender":"","date_of_birth":null,"address":{"area":{"code":"","name":""},"city":{"code":"","name":""},"district":{"code":"","name":""},"ward":{"code":"","name":""},"text":""},"pos_code":"","is_collaborator":null,"referral_code":"","phone_number_verified":true,"default_pos_codes":null,"apartment":null,"labels":null,"daily_wallet_transaction_limit":null,"children":null,"social_networks":null,"default_pos_code":"","status":true,"login_at":"2024-11-07T17:50:01.547Z","created_at":"2022-07-19T08:57:05.306Z","updated_at":"2023-04-20T02:46:56.14Z"},"new_user":false}
+          <t xml:space="preserve">{"success":true,"message":"ok","token":"Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYzMjU3MTgyLCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMTcyMTE4MiwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTE2VDAxOjM5OjQyLjg1ODg2NzEwNFoiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMTZUMDE6Mzk6NDIuODU1WiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.fL_ombV_xjTZUUDzC5070wszNpnS1KQm8ozOUmVJloxXtoAnzSEGzOZh6Nl8412oSOSGwE6a0lRq78cqMk0vYrdAJpP_5V0d7hZQ-N8ksp3JsfvzQTfg_dj4C_qgVDKJp5_G5XJueOgfU9KFDNmCPr8Rdbn4pgVTHlNsfOLTfYijGFJm1Wu78jj8AZPxK3Pn8WUp1QtJORjGSJ-rpZTYv4n5OPXAn-GbC7hOF-7pScVgC9ddg5MKFSp3jdaa_WfX15K4Lh7dMk6fXJ30uH2AgM32-CJsC8BwF5oEwbKvtjNspnaxz6UATwrFt09s6b8ZUa_NOCZ5oBSF03N2C_g-TLcNAFYrYILcuQUKSf7zddymRvhVr_qeiuphXyn8YTheupnuzjE3w0MnJ04H__92kaYQzn-P6PnMCwougIqlIZnGLgzEbrEqeS_VpekYEDQE98fzZXICQcB_YYAmRAsGvOxXyajQv1io8zXubbOTPKXVVG5EiQpZ7D5lB_NI75YSzOFPmcnZiEBb9a5Ya8rHfOFUlXxBHG4vsIR2FMsPe10jHj8Q7TrQnyjrxatCFfIacKBT6WhO7BOL_v2OqjCN9Zqx--BHknsd1Cx0BRn1BScKCpWR7aFrsUc_t-iJqFWSGHc_sEFzBm9Uyx0yag2nlrjJ9qCkprg3YD1DrYchkzM","user":{"code":"62d671e13a1f043b9ebf90fd","username":"admin","full_name":"Admin","avatar":"","email":"","phone_number":"","role_code":"admin","trade_code":"","pos_codes":null,"gender":"","date_of_birth":null,"address":{"area":{"code":"","name":""},"city":{"code":"","name":""},"district":{"code":"","name":""},"ward":{"code":"","name":""},"text":""},"pos_code":"","is_collaborator":null,"referral_code":"","phone_number_verified":true,"default_pos_codes":null,"apartment":null,"labels":null,"daily_wallet_transaction_limit":null,"children":null,"social_networks":null,"default_pos_code":"","status":true,"login_at":"2024-11-16T01:39:42.258Z","created_at":"2022-07-19T08:57:05.306Z","updated_at":"2023-04-20T02:46:56.14Z"},"new_user":false}
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -505,7 +541,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'success': False, 'message': 'UserName: zero value', 'token': '', 'user': None, 'new_user': False}</t>
+          <t>{ "success": false, "message": "UserName: zero value", "token": "", "user": null, "new_user": false}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -519,7 +555,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -534,7 +570,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'success': False, 'message': 'wrong password', 'token': '', 'user': None, 'new_user': False}</t>
+          <t>{ "success": false, "message": "wrong password", "token": "", "user": null, "new_user": false}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -548,7 +584,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -563,7 +599,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'success': False, 'message': 'Password: zero value', 'token': '', 'user': None, 'new_user': False}</t>
+          <t>{ "success": false, "message": "Password: zero value", "token": "", "user": null, "new_user": false}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -577,7 +613,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -592,7 +628,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'success': False, 'message': 'username not exist', 'token': '', 'user': None, 'new_user': False}</t>
+          <t>{ "success": false, "message": "username not exist", "token": "", "user": null, "new_user": false}</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -606,7 +642,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -621,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'data': {'code': '672b96e554c531cca1bcfec1', 'created_at': '2024-11-06T16:18:45.53Z', 'updated_at': '2024-11-06T16:18:45.53Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'New Year Promo', 'app_image': 'https://www.pexels.com/photo/pouch-with-several-makeup-3373739/', 'web_image': 'https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/', 'link_to_screen': 'promo', 'start_time': '2024-01-01T00:00:00Z', 'end_time': '2024-12-31T23:59:59Z', 'trade_codes': ['NY2024'], 'display_order': 1, 'is_sub_banner': True, 'status': False}}</t>
+          <t>{ "success": true, "detail": "Success", "data": { "code": "672dcedf54c531cca1bcfeea", "created_at": "2024-11-08T08:42:07.038Z", "updated_at": "2024-11-08T08:42:07.038Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promo", "app_image": "https://www.pexels.com/photo/pouch-with-several-makeup-3373739/", "web_image": "https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/", "link_to_screen": "promo", "start_time": "2024-01-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "NY2024" ], "display_order": 1, "is_sub_banner": true, "status": false }}</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -629,13 +665,13 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cfdce54c531cca1bcfee2","created_at":"2024-11-07T17:50:06.815Z","updated_at":"2024-11-07T17:50:06.815Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6737f7e054c531cca1bcff49","created_at":"2024-11-16T01:39:44.276Z","updated_at":"2024-11-16T01:39:44.276Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -650,7 +686,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'success': False, 'detail': 'banner need web image or app image url!', 'data': None}</t>
+          <t>{ "success": false, "detail": "banner need web image or app image url!", "data": null}</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -664,7 +700,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -679,7 +715,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -693,7 +729,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -704,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'data': {'code': '672b96e654c531cca1bcfec2', 'created_at': '2024-11-06T16:18:46.019Z', 'updated_at': '2024-11-06T16:18:46.019Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Promo Banner', 'app_image': 'https://www.pexels.com/photo/pouch-with-several-makeup-3373739/', 'web_image': 'https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/', 'link_to_screen': 'promo', 'start_time': '2024-01-01T00:00:00Z', 'end_time': '2024-12-31T23:59:59Z', 'trade_codes': ['PR2024'], 'display_order': 1, 'is_sub_banner': True, 'status': False}}</t>
+          <t>{ "success": false, "detail": "start time: end time invalidate!", "data": null}</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -716,13 +752,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cfdd154c531cca1bcfee3","created_at":"2024-11-07T17:50:09.1Z","updated_at":"2024-11-07T17:50:09.1Z","updated_by":"\u003cinvalid Value\u003e","name":"Promo Banner","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["PR2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -733,61 +769,50 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'success': False, 'detail': 'start time: end time invalidate!', 'data': Null}</t>
+          <t>string"</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
+          <t xml:space="preserve">"json: cannot unmarshal string into Go struct field CreateBannerPayload.trade_codes of type []string"
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TC_11</t>
+          <t>TC_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{'success': True, 'detail': 'Success', 'data': {'code': '672b96e654c531cca1bcfec5', 'created_at': '2024-11-06T16:18:46.669Z', 'updated_at': '2024-11-06T16:18:46.669Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Promo Banner', 'app_image': 'https://www.pexels.com/photo/pouch-with-several-makeup-3373739/', 'web_image': 'https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/', 'link_to_screen': 'promo', 'start_time': '2024-01-01T00:00:00Z', 'end_time': '2024-12-31T23:59:59Z', 'trade_codes': ['PR2024'], 'display_order': 1, 'is_sub_banner': True, 'status': False}}</t>
-        </is>
+        <v>405</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cfdd354c531cca1bcfee4","created_at":"2024-11-07T17:50:11.343Z","updated_at":"2024-11-07T17:50:11.343Z","updated_by":"\u003cinvalid Value\u003e","name":"Promo Banner","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["PR2024"],"display_order":1,"is_sub_banner":true,"status":false}}
-</t>
-        </is>
+        <v>405</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TC_12</t>
+          <t>TC_11</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -795,33 +820,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{
- "data": [
- {
- "app_image": "https://www.pexels.com/photo/pouch-with-several-makeup-3373739/",
- "display_order": 1,
- "end_time": "2024-12-31",
- "name": "New Year Promo"
- },
- ...
- ]
- }</t>
+          <t>{ "success": true, "detail": "Success", "data": { "code": "67289a3754c531cca1bcfe8d", "created_at": "2024-11-04T09:56:07.2Z", "updated_at": "2024-11-08T08:21:23.123Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promoo", "app_image": "https://www.pexels.com/photo/pouch-with-several-makeup-3373739/", "web_image": "https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/", "link_to_screen": "promo", "start_time": "2024-01-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "NY2024" ], "display_order": 1, "is_sub_banner": true, "status": false }}</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>405</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:36:42.854Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TC_13</t>
+          <t>TC_12</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -829,7 +849,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "data": { "code": "67289a3754c531cca1bcfe8d", "created_at": "2024-11-04T09:56:07.2Z", "updated_at": "2024-11-04T10:22:53.961Z", "updated_by": "&lt;invalid Value&gt;", "name": "", "app_image": "https://www.pexels.com/photo/pouch-with-several-makeup-3373739/", "web_image": "https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/", "link_to_screen": "promo", "start_time": "2024-01-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "NY2024" ], "display_order": 1, "is_sub_banner": true, "status": false }}</t>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID", "data": null}</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -837,79 +857,55 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-07T17:42:04.802Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TC_14</t>
+          <t>TC_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID", "data": None}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TC_15</t>
+          <t>TC_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbidden </t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>405</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TC_16</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>200</v>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>{
  "data": [
@@ -923,26 +919,31 @@
  }</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>405</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TC_17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>200</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>{
  "data": [
@@ -960,53 +961,60 @@
  }</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID", "data": null}</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>405</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TC_18</t>
+          <t>TC_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>{
- "detail": "Invalid query parameter: page must be a number",
- "success": false
- }</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>405</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TC_19</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>200</v>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>{
  "data": [
@@ -1021,62 +1029,67 @@
  }</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>403</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>405</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>403</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unauthorized
+</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TC_20</t>
+          <t>TC_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbidden </t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>403</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unauthorized
-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TC_21</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>200</v>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>{
  "data": [
  {
  "app_image": "https://example.com/app1.png",
  "display_order": 1,
- "end_time": "2024-12-31",
+ "end_time": "2024-12-31T23:59:59Z",
  "name": "Banner 1"
  },
  ...
@@ -1084,26 +1097,31 @@
  }</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>405</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TC_22</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>200</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>{
  "data": [
@@ -1121,30 +1139,62 @@
  }</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>405</v>
+      </c>
       <c r="D23" t="n">
         <v>405</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TC_23</t>
+          <t>TC_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>405</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID"}</t>
+        </is>
+      </c>
       <c r="D24" t="n">
-        <v>405</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
+</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -1154,15 +1204,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TC_24</t>
+          <t>TC_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID"}</t>
+          <t>“EOF”</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1170,20 +1220,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
+          <t xml:space="preserve">{"success":true,"detail":"Success"}
 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (400)
+assert 200 == 400</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TC_25</t>
+          <t>TC_24</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1191,94 +1247,100 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{"detail": "The status field is required."}</t>
+          <t>"json: cannot unmarshal number into Go struct field UpdateBannerStatusPayload.status of type bool"</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">"json: cannot unmarshal number into Go struct field UpdateBannerStatusPayload.status of type bool"
 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TC_26</t>
+          <t>TC_25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{"detail": "The status value must be true or false"}</t>
+          <t>{"detail": "The Content-Type field is required"}</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">"json: cannot unmarshal number into Go struct field UpdateBannerStatusPayload.status of type bool"
+          <t xml:space="preserve">{"success":true,"detail":"Success"}
 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (415)
+assert 200 == 415</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TC_27</t>
+          <t>TC_26</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{"detail": "Only Content-Type is supported as application/json"}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TC_28</t>
+          <t>TC_27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{"detail": "The extra_field is not supported"}</t>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID"}</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1286,28 +1348,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TC_29</t>
+          <t>TC_28</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{"detail": "The Content-Type field is required"}</t>
+          <t>{"detail": "Status updated", "success": true}</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1321,51 +1383,51 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TC_30</t>
+          <t>TC_29</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{"detail": "Status updated", "success": true}</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">{"success":true,"detail":"Success"}
 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TC_31</t>
+          <t>TC_30</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{"detail": "Banner does not exist"}</t>
+          <t>{"detail": "Status is correct, no change", "success": true}</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1373,20 +1435,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
+          <t xml:space="preserve">{"success":true,"detail":"Success"}
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TC_32</t>
+          <t>TC_31</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1394,7 +1456,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{"detail": "Status updated", "success": true}</t>
+          <t>{"data": {}, "status": true}</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1402,20 +1464,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:50.557Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TC_33</t>
+          <t>TC_32</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1423,7 +1485,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{"detail": "Status updated", "success": true}</t>
+          <t>{"data": {}, "status": true}</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1431,107 +1493,96 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:50.724Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TC_34</t>
+          <t>TC_33</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>{"detail": "Status is correct, no change", "success": true}</t>
-        </is>
+        <v>405</v>
       </c>
       <c r="D35" t="n">
-        <v>200</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
-</t>
-        </is>
+        <v>405</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TC_35</t>
+          <t>TC_34</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{"data": {}, "status": true}</t>
+          <t>{"detail": "Banner does not exist"}</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-07T17:50:32.258Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TC_36</t>
+          <t>TC_35</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{"data": {}, "status": true}</t>
+          <t>{"detail": "Name field is required"}</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-07T17:50:32.917Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">"parsing time \"\"2024-12-31T23:59:59\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"\"\" as \"Z07:00\""
 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TC_37</t>
+          <t>TC_36</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1539,31 +1590,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{"detail": "Code is required"}</t>
+          <t>{"detail": "display_order must be an integer"}</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>405</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"json: cannot unmarshal string into Go struct field UpdateBannerByCodePayload.display_order of type int64"
+</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TC_38</t>
+          <t>TC_37</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{"detail": "Banner does not exist"}</t>
+          <t>{"detail": "Invalid datetime format"}</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1571,49 +1627,49 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
+          <t xml:space="preserve">"parsing time \"\"2024-13-10\"\": month out of range"
 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TC_39</t>
+          <t>TC_38</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{"detail": "Name field is required"}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">"parsing time \"\"2024-12-31T23:59:59\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"\"\" as \"Z07:00\""
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TC_40</t>
+          <t>TC_39</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1621,7 +1677,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{"detail": "display_order must be an integer"}</t>
+          <t>{"detail": "Only Content-Type is supported as application/json"}</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1629,20 +1685,20 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">"json: cannot unmarshal string into Go struct field UpdateBannerByCodePayload.display_order of type int64"
+          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TC_41</t>
+          <t>TC_40</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1650,7 +1706,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{"detail": "Invalid datetime format"}</t>
+          <t>{"detail": "The unsupported_field is not supported"}</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1658,57 +1714,57 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">"parsing time \"\"2024-13-10\"\": month out of range"
+          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TC_42</t>
+          <t>TC_41</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{"detail": "Trade code does not exist"}</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TC_43</t>
+          <t>TC_42</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{"detail": "Only Content-Type is supported as application/json"}</t>
+          <t>parsing time ""2024-12-5T23:59:59Z"" as ""2006-01-02T15:04:05Z07:00"": cannot parse "5T23:59:59Z"" as "02"</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1716,78 +1772,78 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
+          <t xml:space="preserve">"parsing time \"\"2024-12-5T23:59:59Z\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"5T23:59:59Z\"\" as \"02\""
 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TC_44</t>
+          <t>TC_43</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{"detail": "The unsupported_field is not supported"}</t>
+          <t>{'success': True, 'detail': 'Success', 'data': {'code': '67289a3754c531cca1bcfe8d', 'created_at': '2024-11-04T09:56:07.2Z', 'updated_at': '2024-11-06T16:18:52.383Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'New Year Promoo', 'app_image': 'https://www.pexels.com/photo/pouch-with-several-makeup-3373739/', 'web_image': 'https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/', 'link_to_screen': 'promo', 'start_time': '2024-01-01T00:00:00Z', 'end_time': '2024-12-31T23:59:59Z', 'trade_codes': ['NY2024'], 'display_order': 1, 'is_sub_banner': True, 'status': False}}</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"banner need web image or app image url!","data":null}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:52.909Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TC_46</t>
+          <t>TC_44</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>parsing time ""2024-12-5T23:59:59Z"" as ""2006-01-02T15:04:05Z07:00"": cannot parse "5T23:59:59Z"" as "02"</t>
+          <t>{'success': True, 'detail': 'Success', 'page': 1, 'page_size': 10, 'total': 72, 'data': [{'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d60e6e0ceeddf78e0a10', 'created_at': '2022-06-03T09:36:14.788Z', 'updated_at': '2022-11-11T04:46:48.371Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 2, 'is_sub_banner': False, 'status': True}, {'code': '6299d6c36e0ceeddf78e0a11', 'created_at': '2022-06-03T09:39:15.463Z', 'updated_at': '2022-11-11T04:56:35.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': False, 'status': True}, {'code': '62bbc5bb92f1a55d1028bfea', 'created_at': '2022-06-29T03:23:39.448Z', 'updated_at': '2022-12-13T04:38:05.167Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 4, 'is_sub_banner': True, 'status': True}, {'code': '62bbc6ef92f1a55d1028bfeb', 'created_at': '2022-06-29T03:28:47.384Z', 'updated_at': '2022-11-28T07:38:26.462Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/products/34850317323', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2023-01-01T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': True, 'status': True}, {'code': '62bbca9992f1a55d1028bfec', 'created_at': '2022-06-29T03:44:25.21Z', 'updated_at': '2022-06-29T03:44:25.21Z', 'updated_by': '', 'name': '?�', 'app_image': '', 'web_image': 'new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG', 'link_to_screen': 'https://www.youtube.com/watch?v=MTNCiCpK5Eg&amp;ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2022-07-09T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': False}, {'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fdafbf45f7f81fe892f1', 'created_at': '2022-12-13T04:21:03.353Z', 'updated_at': '2022-12-13T04:23:19.653Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Test', 'app_image': '', 'web_image': 'new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 0, 'is_sub_banner': True, 'status': True}, {'code': '6397fe74bf45f7f81fe892f2', 'created_at': '2022-12-13T04:24:20.91Z', 'updated_at': '2022-12-13T04:26:09.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test', 'app_image': '', 'web_image': 'new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fe8abf45f7f81fe892f3', 'created_at': '2022-12-13T04:24:42.39Z', 'updated_at': '2022-12-13T04:26:11.536Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test 1', 'app_image': '', 'web_image': 'new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">"parsing time \"\"2024-12-5T23:59:59Z\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"5T23:59:59Z\"\" as \"02\""
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TC_47</t>
+          <t>TC_45</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1795,7 +1851,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'data': {'code': '67289a3754c531cca1bcfe8d', 'created_at': '2024-11-04T09:56:07.2Z', 'updated_at': '2024-11-06T16:18:52.383Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'New Year Promoo', 'app_image': 'https://www.pexels.com/photo/pouch-with-several-makeup-3373739/', 'web_image': 'https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/', 'link_to_screen': 'promo', 'start_time': '2024-01-01T00:00:00Z', 'end_time': '2024-12-31T23:59:59Z', 'trade_codes': ['NY2024'], 'display_order': 1, 'is_sub_banner': True, 'status': False}}</t>
+          <t>{'success': True, 'detail': 'Success', 'page': 1, 'page_size': 10, 'total': 72, 'data': [{'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d60e6e0ceeddf78e0a10', 'created_at': '2022-06-03T09:36:14.788Z', 'updated_at': '2022-11-11T04:46:48.371Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 2, 'is_sub_banner': False, 'status': True}, {'code': '6299d6c36e0ceeddf78e0a11', 'created_at': '2022-06-03T09:39:15.463Z', 'updated_at': '2022-11-11T04:56:35.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': False, 'status': True}, {'code': '62bbc5bb92f1a55d1028bfea', 'created_at': '2022-06-29T03:23:39.448Z', 'updated_at': '2022-12-13T04:38:05.167Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 4, 'is_sub_banner': True, 'status': True}, {'code': '62bbc6ef92f1a55d1028bfeb', 'created_at': '2022-06-29T03:28:47.384Z', 'updated_at': '2022-11-28T07:38:26.462Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/products/34850317323', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2023-01-01T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': True, 'status': True}, {'code': '62bbca9992f1a55d1028bfec', 'created_at': '2022-06-29T03:44:25.21Z', 'updated_at': '2022-06-29T03:44:25.21Z', 'updated_by': '', 'name': '?�', 'app_image': '', 'web_image': 'new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG', 'link_to_screen': 'https://www.youtube.com/watch?v=MTNCiCpK5Eg&amp;ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2022-07-09T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': False}, {'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fdafbf45f7f81fe892f1', 'created_at': '2022-12-13T04:21:03.353Z', 'updated_at': '2022-12-13T04:23:19.653Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Test', 'app_image': '', 'web_image': 'new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 0, 'is_sub_banner': True, 'status': True}, {'code': '6397fe74bf45f7f81fe892f2', 'created_at': '2022-12-13T04:24:20.91Z', 'updated_at': '2022-12-13T04:26:09.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test', 'app_image': '', 'web_image': 'new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fe8abf45f7f81fe892f3', 'created_at': '2022-12-13T04:24:42.39Z', 'updated_at': '2022-12-13T04:26:11.536Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test 1', 'app_image': '', 'web_image': 'new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1803,20 +1859,20 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-07T17:50:40.715Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TC_48</t>
+          <t>TC_46</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1832,20 +1888,20 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TC_49</t>
+          <t>TC_47</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1861,20 +1917,20 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TC_50</t>
+          <t>TC_48</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1890,20 +1946,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TC_51</t>
+          <t>TC_49</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1919,28 +1975,28 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TC_52</t>
+          <t>TC_50</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'page': 1, 'page_size': 10, 'total': 72, 'data': [{'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d60e6e0ceeddf78e0a10', 'created_at': '2022-06-03T09:36:14.788Z', 'updated_at': '2022-11-11T04:46:48.371Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 2, 'is_sub_banner': False, 'status': True}, {'code': '6299d6c36e0ceeddf78e0a11', 'created_at': '2022-06-03T09:39:15.463Z', 'updated_at': '2022-11-11T04:56:35.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': False, 'status': True}, {'code': '62bbc5bb92f1a55d1028bfea', 'created_at': '2022-06-29T03:23:39.448Z', 'updated_at': '2022-12-13T04:38:05.167Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 4, 'is_sub_banner': True, 'status': True}, {'code': '62bbc6ef92f1a55d1028bfeb', 'created_at': '2022-06-29T03:28:47.384Z', 'updated_at': '2022-11-28T07:38:26.462Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/products/34850317323', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2023-01-01T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': True, 'status': True}, {'code': '62bbca9992f1a55d1028bfec', 'created_at': '2022-06-29T03:44:25.21Z', 'updated_at': '2022-06-29T03:44:25.21Z', 'updated_by': '', 'name': '?�', 'app_image': '', 'web_image': 'new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG', 'link_to_screen': 'https://www.youtube.com/watch?v=MTNCiCpK5Eg&amp;ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2022-07-09T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': False}, {'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fdafbf45f7f81fe892f1', 'created_at': '2022-12-13T04:21:03.353Z', 'updated_at': '2022-12-13T04:23:19.653Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Test', 'app_image': '', 'web_image': 'new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 0, 'is_sub_banner': True, 'status': True}, {'code': '6397fe74bf45f7f81fe892f2', 'created_at': '2022-12-13T04:24:20.91Z', 'updated_at': '2022-12-13T04:26:09.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test', 'app_image': '', 'web_image': 'new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fe8abf45f7f81fe892f3', 'created_at': '2022-12-13T04:24:42.39Z', 'updated_at': '2022-12-13T04:26:11.536Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test 1', 'app_image': '', 'web_image': 'new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
+          <t>{"success":false,"detail":"Invalid page!","data":null}</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1948,28 +2004,34 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (201)
+assert 200 == 201</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TC_53</t>
+          <t>TC_51</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'page': 1, 'page_size': 10, 'total': 72, 'data': [{'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d60e6e0ceeddf78e0a10', 'created_at': '2022-06-03T09:36:14.788Z', 'updated_at': '2022-11-11T04:46:48.371Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 2, 'is_sub_banner': False, 'status': True}, {'code': '6299d6c36e0ceeddf78e0a11', 'created_at': '2022-06-03T09:39:15.463Z', 'updated_at': '2022-11-11T04:56:35.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG', 'web_image': '', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': False, 'status': True}, {'code': '62bbc5bb92f1a55d1028bfea', 'created_at': '2022-06-29T03:23:39.448Z', 'updated_at': '2022-12-13T04:38:05.167Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 4, 'is_sub_banner': True, 'status': True}, {'code': '62bbc6ef92f1a55d1028bfeb', 'created_at': '2022-06-29T03:28:47.384Z', 'updated_at': '2022-11-28T07:38:26.462Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/products/34850317323', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2023-01-01T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 5, 'is_sub_banner': True, 'status': True}, {'code': '62bbca9992f1a55d1028bfec', 'created_at': '2022-06-29T03:44:25.21Z', 'updated_at': '2022-06-29T03:44:25.21Z', 'updated_by': '', 'name': '?�', 'app_image': '', 'web_image': 'new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG', 'link_to_screen': 'https://www.youtube.com/watch?v=MTNCiCpK5Eg&amp;ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng', 'start_time': '2022-06-30T14:00:00Z', 'end_time': '2022-07-09T14:00:00Z', 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': False}, {'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fdafbf45f7f81fe892f1', 'created_at': '2022-12-13T04:21:03.353Z', 'updated_at': '2022-12-13T04:23:19.653Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'Test', 'app_image': '', 'web_image': 'new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 0, 'is_sub_banner': True, 'status': True}, {'code': '6397fe74bf45f7f81fe892f2', 'created_at': '2022-12-13T04:24:20.91Z', 'updated_at': '2022-12-13T04:26:09.22Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test', 'app_image': '', 'web_image': 'new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262611000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6397fe8abf45f7f81fe892f3', 'created_at': '2022-12-13T04:24:42.39Z', 'updated_at': '2022-12-13T04:26:11.536Z', 'updated_by': '&lt;invalid Value&gt;', 'name': 'test 1', 'app_image': '', 'web_image': 'new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': ['262616000'], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
+          <t xml:space="preserve">{"success":false,"detail":"Invalid page size!","data":null} </t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1977,28 +2039,34 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (202)
+assert 200 == 202</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TC_54</t>
+          <t>TC_52</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{"success":false,"detail":"Invalid page!","data":null}</t>
+          <t xml:space="preserve">{"success":false,"detail":"Invalid trade code!","data":null} </t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2006,28 +2074,34 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (203)
+assert 200 == 203</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TC_55</t>
+          <t>TC_53</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"Invalid page size!","data":null} </t>
+          <t xml:space="preserve">{"success":false,"detail":"Invalid status!","data":null} </t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2035,28 +2109,34 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (204)
+assert 200 == 204</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TC_56</t>
+          <t>TC_54</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"Invalid trade code!","data":null} </t>
+          <t xml:space="preserve">{"success":false,"detail":"Invalid is_sub_banner!","data":null} </t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2064,28 +2144,34 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (205)
+assert 200 == 205</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TC_57</t>
+          <t>TC_55</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"Invalid status!","data":null} </t>
+          <t>{"success":false,"detail":"Invalid page and page size!","data":null}</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2093,57 +2179,63 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (206)
+assert 200 == 206</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TC_58</t>
+          <t>TC_56</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"Invalid is_sub_banner!","data":null} </t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TC_59</t>
+          <t>TC_57</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{"success":false,"detail":"Invalid page and page size!","data":null}</t>
+          <t>{'success': True, 'detail': 'Success', 'data': [{'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2151,45 +2243,49 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TC_60</t>
+          <t>TC_58</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>400</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>{'success': True, 'detail': 'Success', 'data': None}</t>
+        </is>
+      </c>
       <c r="D60" t="n">
         <v>200</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":95,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":null}
 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TC_61</t>
+          <t>TC_59</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2211,43 +2307,44 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TC_62</t>
+          <t>TC_60</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>200</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>{'success': True, 'detail': 'Success', 'data': None}</t>
-        </is>
+        <v>400</v>
       </c>
       <c r="D62" t="n">
         <v>200</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":null}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (400)
+assert 200 == 400</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TC_63</t>
+          <t>TC_61</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2263,53 +2360,57 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TC_64</t>
+          <t>TC_62</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>400</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>{'success': True, 'detail': 'Success', 'data': [{'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
+        </is>
+      </c>
       <c r="D64" t="n">
         <v>200</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":null}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TC_65</t>
+          <t>TC_63</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{'success': True, 'detail': 'ok'}</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2317,49 +2418,50 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"ok"}
 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TC_66</t>
+          <t>TC_64</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'Success', 'data': [{'code': '62cf00b7ddc6eae4b46d7dca', 'created_at': '2022-07-13T17:28:23.111Z', 'updated_at': '2022-12-13T04:20:11.272Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': '', 'web_image': 'new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG', 'link_to_screen': '', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}, {'code': '6299d5df6e0ceeddf78e0a0f', 'created_at': '2022-06-03T09:35:27.91Z', 'updated_at': '2023-07-19T02:55:25.479Z', 'updated_by': '&lt;invalid Value&gt;', 'name': '', 'app_image': 'new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG', 'web_image': 'new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG', 'link_to_screen': 'https://ubo.anvita.com.vn/category/01000000', 'start_time': None, 'end_time': None, 'trade_codes': [], 'display_order': 1, 'is_sub_banner': False, 'status': True}]}</t>
+          <t xml:space="preserve">404 page not found
+</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">404 page not found
 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TC_67</t>
+          <t>TC_65</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2367,7 +2469,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'success': True, 'detail': 'ok'}</t>
+          <t>{"success":false,"detail":"Invalid code!","data":null}</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2381,31 +2483,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TC_68</t>
+          <t>TC_66</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">404 page not found
-</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">404 page not found
+          <t xml:space="preserve">{}
 </t>
         </is>
       </c>
@@ -2418,15 +2519,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TC_69</t>
+          <t>TC_67</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{"success":false,"detail":"Invalid code!","data":null}</t>
+          <t>{"detail": "Only Content-Type is supported as application/json"}</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2441,107 +2542,55 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (415)
+assert 200 == 415</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TC_70</t>
+          <t>TC_68</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t xml:space="preserve">404 page not found
+</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">{}
+          <t xml:space="preserve">404 page not found
 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TC_71</t>
+          <t>TC_69</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="C71" t="inlineStr">
-        <is>
-          <t>{"detail": "Only Content-Type is supported as application/json"}</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>200</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"success":true,"detail":"ok"}
-</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>TC_72</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>404</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">404 page not found
-</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>404</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">404 page not found
-</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>TC_73</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>200</v>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>{    "success": true,
     "detail": "Success",
@@ -2574,62 +2623,120 @@
 }</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true}]}
+</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TC_70</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>200</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>{ "success": true, "detail": "Success", "data": [ { "code": "62df9bfaddc6eae4b46d7dcd", "created_at": "2022-07-26T07:47:06.599Z", "updated_at": "2022-09-21T02:01:32.301Z", "updated_by": "&lt;invalid Value&gt;", "name": "", "app_image": "new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG", "web_image": "", "link_to_screen": "https://ubo.anvita.com.vn/products/34850317323", "link_to_post": "", "display_screen": "", "interval": 0, "numb_display_per_day": 0, "numb_display_per_customer": 0, "start_time": "2022-09-19T08:33:35Z", "end_time": "2022-09-30T14:00:00Z", "trade_codes": [ "262611000" ], "pos_codes": [], "customer_codes": [], "display_order": 0, "status": true } ]}</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true}]}
+</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TC_71</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>200</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>{ "success": true, "detail": "ok"}</t>
+        </is>
+      </c>
       <c r="D73" t="n">
         <v>200</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"ok"}
 </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TC_74</t>
+          <t>TC_72</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "data": [ { "code": "62df9bfaddc6eae4b46d7dcd", "created_at": "2022-07-26T07:47:06.599Z", "updated_at": "2022-09-21T02:01:32.301Z", "updated_by": "&lt;invalid Value&gt;", "name": "", "app_image": "new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG", "web_image": "", "link_to_screen": "https://ubo.anvita.com.vn/products/34850317323", "link_to_post": "", "display_screen": "", "interval": 0, "numb_display_per_day": 0, "numb_display_per_customer": 0, "start_time": "2022-09-19T08:33:35Z", "end_time": "2022-09-30T14:00:00Z", "trade_codes": [ "262611000" ], "pos_codes": [], "customer_codes": [], "display_order": 0, "status": true } ]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":[{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true}]}
+          <t xml:space="preserve">{}
 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TC_75</t>
+          <t>TC_73</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "ok"}</t>
+          <t>{ "detail": "Popup not found", "success": false }</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2644,42 +2751,48 @@
       <c r="F75" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Lỗi: Mã trạng thái thực tế (200) không khớp với mong đợi (404)
+assert 200 == 404</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TC_76</t>
+          <t>TC_74</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>404 page not found</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">{}
+          <t xml:space="preserve">404 page not found
 </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TC_77</t>
+          <t>TC_75</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2687,260 +2800,260 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{ "detail": "Popup not found", "success": false }</t>
+          <t>404 page not found</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"ok"}
+          <t xml:space="preserve">404 page not found
 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TC_78</t>
+          <t>TC_76</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>404 page not found</t>
+          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd11954c531cca1bcfecf", "created_at": "2024-11-07T14:39:21.737Z", "updated_at": "2024-11-07T14:39:21.737Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promo", "app_image": "example.png", "web_image": "web_example.png", "link_to_screen": "https://example.com/screen", "link_to_post": "https://example.com/post", "display_screen": "HomePage", "interval": 5, "numb_display_per_day": 10, "numb_display_per_customer": 3, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade123" ], "pos_codes": [ "pos123" ], "customer_codes": [ "customer123" ], "display_order": 1, "status": false }}</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">404 page not found
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}}
 </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TC_79</t>
+          <t>TC_77</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>404 page not found</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">404 page not found
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TC_80</t>
+          <t>TC_78</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd11954c531cca1bcfecf", "created_at": "2024-11-07T14:39:21.737Z", "updated_at": "2024-11-07T14:39:21.737Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promo", "app_image": "example.png", "web_image": "web_example.png", "link_to_screen": "https://example.com/screen", "link_to_post": "https://example.com/post", "display_screen": "HomePage", "interval": 5, "numb_display_per_day": 10, "numb_display_per_customer": 3, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade123" ], "pos_codes": [ "pos123" ], "customer_codes": [ "customer123" ], "display_order": 1, "status": false }}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cfe0854c531cca1bcfee5","created_at":"2024-11-07T17:51:04.602Z","updated_at":"2024-11-07T17:51:04.602Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TC_81</t>
+          <t>TC_79</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>"popup need action value and app image"</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">"popup need action value and app image"
 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TC_82</t>
+          <t>TC_80</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>"parsing time \"\"31-12-2024\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"2-2024\"\" as \"2006\""</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">"parsing time \"\"31-12-2024\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"2-2024\"\" as \"2006\""
 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TC_83</t>
+          <t>TC_81</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"popup need action value and app image"</t>
+          <t>{ "success": false, "detail": "start time: end time invalidate!", "data": null}</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">"popup need action value and app image"
+          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
 </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TC_84</t>
+          <t>TC_82</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"parsing time \"\"31-12-2024\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"2-2024\"\" as \"2006\""</t>
+          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd46e54c531cca1bcfed0", "created_at": "2024-11-07T14:53:34.011Z", "updated_at": "2024-11-07T14:53:34.011Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promo", "app_image": "example.png", "web_image": "web_example.png", "link_to_screen": "https://example.com/screen", "link_to_post": "https://example.com/post", "display_screen": "HomePage", "interval": 5, "numb_display_per_day": 10, "numb_display_per_customer": 3, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade123" ], "pos_codes": [ "pos123" ], "customer_codes": [ "customer123" ], "display_order": 1, "status": false }}</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">"parsing time \"\"31-12-2024\"\" as \"\"2006-01-02T15:04:05Z07:00\"\": cannot parse \"2-2024\"\" as \"2006\""
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T01:36:50.685Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TC_85</t>
+          <t>TC_83</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "start time: end time invalidate!", "data": null}</t>
+          <t xml:space="preserve">Forbidden </t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TC_86</t>
+          <t>TC_84</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2948,28 +3061,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd46e54c531cca1bcfed0", "created_at": "2024-11-07T14:53:34.011Z", "updated_at": "2024-11-07T14:53:34.011Z", "updated_by": "&lt;invalid Value&gt;", "name": "New Year Promo", "app_image": "example.png", "web_image": "web_example.png", "link_to_screen": "https://example.com/screen", "link_to_post": "https://example.com/post", "display_screen": "HomePage", "interval": 5, "numb_display_per_day": 10, "numb_display_per_customer": 3, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade123" ], "pos_codes": [ "pos123" ], "customer_codes": [ "customer123" ], "display_order": 1, "status": false }}</t>
+          <t>{ "detail": "Popup not found", "success": false }</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>200</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-07T17:42:45.748Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
-</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TC_87</t>
+          <t>TC_85</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2991,14 +3098,14 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TC_88</t>
+          <t>TC_86</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3006,400 +3113,405 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{ "detail": "Popup not found", "success": false }</t>
+          <t>{ "success": true, "detail": "Success"}</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>200</v>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{"success":true,"detail":"Success"}
+</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TC_89</t>
+          <t>TC_87</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID"}</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
 </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TC_90</t>
+          <t>TC_88</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success"}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success"}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TC_91</t>
+          <t>TC_89</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID"}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID"}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TC_92</t>
+          <t>TC_90</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>"json: cannot unmarshal string into Go struct field UpdatePopupStatusPayload.status of type bool"</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">"json: cannot unmarshal string into Go struct field UpdatePopupStatusPayload.status of type bool"
 </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TC_93</t>
+          <t>TC_91</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd46e54c531cca1bcfed0", "created_at": "2024-11-07T14:53:34.011Z", "updated_at": "2024-11-07T15:11:11.194Z", "updated_by": "&lt;invalid Value&gt;", "name": "Holiday Promo", "app_image": "new_image.png", "web_image": "new_web_image.png", "link_to_screen": "https://example.com/newscreen", "link_to_post": "https://example.com/newpost", "display_screen": "MainPage", "interval": 10, "numb_display_per_day": 15, "numb_display_per_customer": 5, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade456" ], "pos_codes": [ "pos456" ], "customer_codes": [ "customer456" ], "display_order": 1, "status": true }}</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T01:40:01.227Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
 </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TC_94</t>
+          <t>TC_92</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"json: cannot unmarshal string into Go struct field UpdatePopupStatusPayload.status of type bool"</t>
+          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID", "data": null}</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">"json: cannot unmarshal string into Go struct field UpdatePopupStatusPayload.status of type bool"
+          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
 </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TC_95</t>
+          <t>TC_93</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "data": { "code": "672cd46e54c531cca1bcfed0", "created_at": "2024-11-07T14:53:34.011Z", "updated_at": "2024-11-07T15:11:11.194Z", "updated_by": "&lt;invalid Value&gt;", "name": "Holiday Promo", "app_image": "new_image.png", "web_image": "new_web_image.png", "link_to_screen": "https://example.com/newscreen", "link_to_post": "https://example.com/newpost", "display_screen": "MainPage", "interval": 10, "numb_display_per_day": 15, "numb_display_per_customer": 5, "start_time": "2024-12-01T00:00:00Z", "end_time": "2024-12-31T23:59:59Z", "trade_codes": [ "trade456" ], "pos_codes": [ "pos456" ], "customer_codes": [ "customer456" ], "display_order": 1, "status": true }}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-07T17:51:15.424Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TC_96</t>
+          <t>TC_94</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "the provided hex string is not a valid ObjectID", "data": null}</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"the provided hex string is not a valid ObjectID","data":null}
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TC_97</t>
+          <t>TC_95</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>{ "success": false, "detail": "start time: end time invalidate!", "data": null}</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
 </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TC_98</t>
+          <t>TC_96</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbidden </t>
+          <t>"json: cannot unmarshal number 1.5 into Go struct field UpdatePopupByCodePayload.display_order of type int64"</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unauthorized
+          <t xml:space="preserve">"json: cannot unmarshal number 1.5 into Go struct field UpdatePopupByCodePayload.display_order of type int64"
 </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TC_99</t>
+          <t>TC_97</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{ "success": false, "detail": "start time: end time invalidate!", "data": null}</t>
+          <t>"json: cannot unmarshal number 10.5 into Go struct field UpdatePopupByCodePayload.interval of type int"</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":false,"detail":"start time: end time invalidate!","data":null}
+          <t xml:space="preserve">"json: cannot unmarshal number 10.5 into Go struct field UpdatePopupByCodePayload.interval of type int"
 </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TC_100</t>
+          <t>TC_98</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"json: cannot unmarshal number 1.5 into Go struct field UpdatePopupByCodePayload.display_order of type int64"</t>
+          <t>{ "success": true, "detail": "Success", "page": 1, "page_size": 10, "total": 15, "data": []}</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">"json: cannot unmarshal number 1.5 into Go struct field UpdatePopupByCodePayload.display_order of type int64"
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":68,"data":[{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eddb54c531cca1bcff3a","created_at":"2024-11-16T00:56:59.571Z","updated_at":"2024-11-16T00:56:59.571Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eccb54c531cca1bcff38","created_at":"2024-11-16T00:52:27.901Z","updated_at":"2024-11-16T00:52:27.901Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
 </t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TC_101</t>
+          <t>TC_99</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"json: cannot unmarshal number 10.5 into Go struct field UpdatePopupByCodePayload.interval of type int"</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">"json: cannot unmarshal number 10.5 into Go struct field UpdatePopupByCodePayload.interval of type int"
+          <t xml:space="preserve">Unauthorized
 </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TC_102</t>
+          <t>TC_100</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3407,7 +3519,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{ "success": true, "detail": "Success", "page": 1, "page_size": 10, "total": 15, "data": []}</t>
+          <t xml:space="preserve">{   "data": [     {       "app_image": "filtered_image.png",       "code": "filtered_code",       "trade_codes": ["trade123"],       "status": true     }   ],   "detail": "Popup list retrieved successfully",   "page": 1,   "page_size": 10,   "success": true,   "total": 1 } </t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3415,75 +3527,85 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":21,"data":[{"code":"672cfe0854c531cca1bcfee5","created_at":"2024-11-07T17:51:04.602Z","updated_at":"2024-11-07T17:51:04.602Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cfc0b54c531cca1bcfee1","created_at":"2024-11-07T17:42:35.213Z","updated_at":"2024-11-07T17:42:35.213Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf8fa54c531cca1bcfee0","created_at":"2024-11-07T17:29:30.455Z","updated_at":"2024-11-07T17:29:30.455Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf47354c531cca1bcfedc","created_at":"2024-11-07T17:10:11.333Z","updated_at":"2024-11-07T17:10:11.333Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf23554c531cca1bcfed8","created_at":"2024-11-07T17:00:37.375Z","updated_at":"2024-11-07T17:00:37.375Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cdf7454c531cca1bcfed4","created_at":"2024-11-07T15:40:36.581Z","updated_at":"2024-11-07T15:40:36.581Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-07T17:51:15.424Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true},{"code":"672cd11954c531cca1bcfecf","created_at":"2024-11-07T14:39:21.737Z","updated_at":"2024-11-07T14:39:21.737Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true},{"code":"62cf0200ddc6eae4b46d7dcb","created_at":"2022-07-13T17:33:52.001Z","updated_at":"2022-08-03T16:33:42.987Z","updated_by":"","name":"","app_image":"new_630_598_d0d5e447-7ece-4c4f-a4a3-98ee1cc2156a.PNG","web_image":"","link_to_screen":"https://admin.ubo.anvita.com.vn/api/v1/account/swagger/index.html#/Customers","link_to_post":"","display_screen":"","interval":1,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-08-03T16:30:49Z","end_time":"2022-08-03T16:30:53Z","trade_codes":[],"pos_codes":["00145003"],"customer_codes":["61cd642ddf1542000144fb90","62383234a89ba3000173061b"],"display_order":1,"status":false}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":68,"data":[{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eddb54c531cca1bcff3a","created_at":"2024-11-16T00:56:59.571Z","updated_at":"2024-11-16T00:56:59.571Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eccb54c531cca1bcff38","created_at":"2024-11-16T00:52:27.901Z","updated_at":"2024-11-16T00:52:27.901Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
 </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>TC_103</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>403</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbidden </t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>403</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unauthorized
-</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>TC_104</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>200</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{   "data": [     {       "app_image": "filtered_image.png",       "code": "filtered_code",       "trade_codes": ["trade123"],       "status": true     }   ],   "detail": "Popup list retrieved successfully",   "page": 1,   "page_size": 10,   "success": true,   "total": 1 } </t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>200</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":21,"data":[{"code":"672cfe0854c531cca1bcfee5","created_at":"2024-11-07T17:51:04.602Z","updated_at":"2024-11-07T17:51:04.602Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cfc0b54c531cca1bcfee1","created_at":"2024-11-07T17:42:35.213Z","updated_at":"2024-11-07T17:42:35.213Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf8fa54c531cca1bcfee0","created_at":"2024-11-07T17:29:30.455Z","updated_at":"2024-11-07T17:29:30.455Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf47354c531cca1bcfedc","created_at":"2024-11-07T17:10:11.333Z","updated_at":"2024-11-07T17:10:11.333Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cf23554c531cca1bcfed8","created_at":"2024-11-07T17:00:37.375Z","updated_at":"2024-11-07T17:00:37.375Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cdf7454c531cca1bcfed4","created_at":"2024-11-07T15:40:36.581Z","updated_at":"2024-11-07T15:40:36.581Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-07T17:51:15.424Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true},{"code":"672cd11954c531cca1bcfecf","created_at":"2024-11-07T14:39:21.737Z","updated_at":"2024-11-07T14:39:21.737Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"62df9bfaddc6eae4b46d7dcd","created_at":"2022-07-26T07:47:06.599Z","updated_at":"2022-09-21T02:01:32.301Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_486_660_8cf14524-cd5c-4db4-833f-1e215b4da313.PNG","web_image":"","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","link_to_post":"","display_screen":"","interval":0,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-09-19T08:33:35Z","end_time":"2022-09-30T14:00:00Z","trade_codes":["262611000"],"pos_codes":[],"customer_codes":[],"display_order":0,"status":true},{"code":"62cf0200ddc6eae4b46d7dcb","created_at":"2022-07-13T17:33:52.001Z","updated_at":"2022-08-03T16:33:42.987Z","updated_by":"","name":"","app_image":"new_630_598_d0d5e447-7ece-4c4f-a4a3-98ee1cc2156a.PNG","web_image":"","link_to_screen":"https://admin.ubo.anvita.com.vn/api/v1/account/swagger/index.html#/Customers","link_to_post":"","display_screen":"","interval":1,"numb_display_per_day":0,"numb_display_per_customer":0,"start_time":"2022-08-03T16:30:49Z","end_time":"2022-08-03T16:30:53Z","trade_codes":[],"pos_codes":["00145003"],"customer_codes":["61cd642ddf1542000144fb90","62383234a89ba3000173061b"],"display_order":1,"status":false}]}
-</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng số Test Case</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Số Test Case Pass</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Số Test Case Fail</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Thời gian bắt đầu</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thời gian kết thúc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-11-16 08:39:41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-11-16 08:40:02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports/test_results.xlsx
+++ b/reports/test_results.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"message":"ok","token":"Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYzMjU3MTgyLCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMTcyMTE4MiwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTE2VDAxOjM5OjQyLjg1ODg2NzEwNFoiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMTZUMDE6Mzk6NDIuODU1WiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.fL_ombV_xjTZUUDzC5070wszNpnS1KQm8ozOUmVJloxXtoAnzSEGzOZh6Nl8412oSOSGwE6a0lRq78cqMk0vYrdAJpP_5V0d7hZQ-N8ksp3JsfvzQTfg_dj4C_qgVDKJp5_G5XJueOgfU9KFDNmCPr8Rdbn4pgVTHlNsfOLTfYijGFJm1Wu78jj8AZPxK3Pn8WUp1QtJORjGSJ-rpZTYv4n5OPXAn-GbC7hOF-7pScVgC9ddg5MKFSp3jdaa_WfX15K4Lh7dMk6fXJ30uH2AgM32-CJsC8BwF5oEwbKvtjNspnaxz6UATwrFt09s6b8ZUa_NOCZ5oBSF03N2C_g-TLcNAFYrYILcuQUKSf7zddymRvhVr_qeiuphXyn8YTheupnuzjE3w0MnJ04H__92kaYQzn-P6PnMCwougIqlIZnGLgzEbrEqeS_VpekYEDQE98fzZXICQcB_YYAmRAsGvOxXyajQv1io8zXubbOTPKXVVG5EiQpZ7D5lB_NI75YSzOFPmcnZiEBb9a5Ya8rHfOFUlXxBHG4vsIR2FMsPe10jHj8Q7TrQnyjrxatCFfIacKBT6WhO7BOL_v2OqjCN9Zqx--BHknsd1Cx0BRn1BScKCpWR7aFrsUc_t-iJqFWSGHc_sEFzBm9Uyx0yag2nlrjJ9qCkprg3YD1DrYchkzM","user":{"code":"62d671e13a1f043b9ebf90fd","username":"admin","full_name":"Admin","avatar":"","email":"","phone_number":"","role_code":"admin","trade_code":"","pos_codes":null,"gender":"","date_of_birth":null,"address":{"area":{"code":"","name":""},"city":{"code":"","name":""},"district":{"code":"","name":""},"ward":{"code":"","name":""},"text":""},"pos_code":"","is_collaborator":null,"referral_code":"","phone_number_verified":true,"default_pos_codes":null,"apartment":null,"labels":null,"daily_wallet_transaction_limit":null,"children":null,"social_networks":null,"default_pos_code":"","status":true,"login_at":"2024-11-16T01:39:42.258Z","created_at":"2022-07-19T08:57:05.306Z","updated_at":"2023-04-20T02:46:56.14Z"},"new_user":false}
+          <t xml:space="preserve">{"success":true,"message":"ok","token":"Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdmF0YXIiOiIiLCJjb2RlIjoiNjJkNjcxZTEzYTFmMDQzYjllYmY5MGZkIiwiY3JlYXRlZF9hdCI6IjIwMjItMDctMTlUMDg6NTc6MDUuMzA2WiIsImVtYWlsIjoiIiwiZXhwIjoxNzYzMjYxNTc2LCJmdWxsX25hbWUiOiJBZG1pbiIsImlhdCI6MTczMTcyNTU3NiwiaWQiOiI2MmQ2NzFlMTNhMWYwNDNiOWViZjkwZmQiLCJpc3N1ZWRfYXQiOiIyMDI0LTExLTE2VDAyOjUyOjU2LjM5MTA3MDQ4OVoiLCJsb2dpbl9hdCI6IjIwMjQtMTEtMTZUMDI6NTI6NTYuMzg3WiIsInBhc3N3b3JkIjoiJDJhJDEwJFZtUkZ6NHhvTWZWTFZSQ0dhZEpnUi5DSWx1RUxJZE1UdWdNTUwzZlZnYi9lMi9aSlZDUUJTIiwicG9zX2NvZGUiOiIiLCJwb3NfY29kZXMiOiIiLCJyb2xlX2NvZGUiOiJhZG1pbiIsInN0YXR1cyI6dHJ1ZSwidHJhZGVfY29kZSI6IiIsInVwZGF0ZWRfYXQiOiIyMDIzLTA0LTIwVDAyOjQ2OjU2LjE0WiIsInVzZXJuYW1lIjoiYWRtaW4ifQ.lQYaYh6G0wXZ1qWsvQx94UyJqGDJB0ACTScpi6g8yYZWoiSfVdQJYLOdvvjt2q4YVkBR13Xu8C4ssugPn9c7733_r-WLiFRQqDvtMj3unzuw5Vr6c5rmfw78xNHuXY6o7fpN9cE6NhO9LF0zUFOJ0JL770Tc0xfXqGSHgrvzdtwwIy5zMUCELq1yoAdsSswqCxe3ttf4w0a11MML4x5zkVIrDHtsPpPOjmnD0Nax5hNXt2eoRvhumM1-BqPOMCObV-NepqMCwL-lNpVZmbCOnMXMAkAebZ6g1XA4__P-FWulsOD-oCSadBmIB6xK8152FBpKXLqBMrSkOaUAI_WFdhkI7Z2yBs8GDZ4mV8eMIlusXEiv3h4ykH6X7fDiQ65SuLy2uEXijhj1W2Ax17gdzdeQQ0zzgn_ZOL2W1g6gcaPChLXOWi4zI2j6HUOI6Mns4EafV-zPdOmcWiu87y0kwQaU2LN0VrxIRBK0BzVIvbzHRvv3cE1WBgDhoVTi8rE0TZqvmGiNiBeBiAH919qz49DmVH69-mMTQXS7q1bdLScPHt2EmDEqdACThzUAPe-gYvAJxGrv3FTHziZkFf7k5ZdMbgOQ8t8iB4HD4ry8476inv8GsF5q0zYHai09fvEwR1t1oZH0vYrWx64CnaMZP-B0yd6gJ98fOl9BMiXzkQE","user":{"code":"62d671e13a1f043b9ebf90fd","username":"admin","full_name":"Admin","avatar":"","email":"","phone_number":"","role_code":"admin","trade_code":"","pos_codes":null,"gender":"","date_of_birth":null,"address":{"area":{"code":"","name":""},"city":{"code":"","name":""},"district":{"code":"","name":""},"ward":{"code":"","name":""},"text":""},"pos_code":"","is_collaborator":null,"referral_code":"","phone_number_verified":true,"default_pos_codes":null,"apartment":null,"labels":null,"daily_wallet_transaction_limit":null,"children":null,"social_networks":null,"default_pos_code":"","status":true,"login_at":"2024-11-16T02:52:55.861Z","created_at":"2022-07-19T08:57:05.306Z","updated_at":"2023-04-20T02:46:56.14Z"},"new_user":false}
 </t>
         </is>
       </c>
@@ -665,7 +665,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6737f7e054c531cca1bcff49","created_at":"2024-11-16T01:39:44.276Z","updated_at":"2024-11-16T01:39:44.276Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6738090954c531cca1bcff4d","created_at":"2024-11-16T02:52:57.432Z","updated_at":"2024-11-16T02:52:57.432Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:36:42.854Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T02:49:48.664Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
@@ -1210,11 +1210,6 @@
       <c r="B25" t="n">
         <v>400</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>“EOF”</t>
-        </is>
-      </c>
       <c r="D25" t="n">
         <v>200</v>
       </c>
@@ -1464,7 +1459,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:50.557Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T02:53:00.68Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
@@ -1493,7 +1488,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:50.724Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T02:53:00.792Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
@@ -1801,7 +1796,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T01:39:52.909Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"67289a3754c531cca1bcfe8d","created_at":"2024-11-04T09:56:07.2Z","updated_at":"2024-11-16T02:53:02.432Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promoo","app_image":"https://www.pexels.com/photo/pouch-with-several-makeup-3373739/","web_image":"https://www.pexels.com/photo/beauty-products-on-pink-background-5881083/","link_to_screen":"promo","start_time":"2024-01-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["NY2024"],"display_order":1,"is_sub_banner":true,"status":false}}
 </t>
         </is>
       </c>
@@ -1830,7 +1825,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -1859,7 +1854,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -1888,7 +1883,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -1917,7 +1912,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -1946,7 +1941,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -1975,7 +1970,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2004,7 +1999,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2039,7 +2034,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2074,7 +2069,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2109,7 +2104,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2144,7 +2139,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2179,7 +2174,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":149,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":151,"data":[{"code":"6299d5df6e0ceeddf78e0a0f","created_at":"2022-06-03T09:35:27.91Z","updated_at":"2023-07-19T02:55:25.479Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_b0020bc5-e706-40d0-a999-b6d2b8717758.PNG","web_image":"new_1640_680_3c53666c-4fac-4c3a-acf1-5d6cb996d6d5.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6299d60e6e0ceeddf78e0a10","created_at":"2022-06-03T09:36:14.788Z","updated_at":"2022-11-11T04:46:48.371Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_88d465bf-96d2-4fdd-bf18-81cec97cf077.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":2,"is_sub_banner":false,"status":true},{"code":"6299d6c36e0ceeddf78e0a11","created_at":"2022-06-03T09:39:15.463Z","updated_at":"2022-11-11T04:56:35.22Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"new_686_288_f5f9dc78-92fc-465e-b5fa-b7fd2f24da58.PNG","web_image":"","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":5,"is_sub_banner":false,"status":true},{"code":"62bbc5bb92f1a55d1028bfea","created_at":"2022-06-29T03:23:39.448Z","updated_at":"2022-12-13T04:38:05.167Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_723ba618-70df-4811-8949-6967b112bb75.PNG","link_to_screen":"https://ubo.anvita.com.vn/category/01000000","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":4,"is_sub_banner":true,"status":true},{"code":"62bbc6ef92f1a55d1028bfeb","created_at":"2022-06-29T03:28:47.384Z","updated_at":"2022-11-28T07:38:26.462Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_c7bed92a-f956-416e-92ef-e49313f94622.PNG","link_to_screen":"https://ubo.anvita.com.vn/products/34850317323","start_time":"2022-06-30T14:00:00Z","end_time":"2023-01-01T14:00:00Z","trade_codes":["262611000"],"display_order":5,"is_sub_banner":true,"status":true},{"code":"62bbca9992f1a55d1028bfec","created_at":"2022-06-29T03:44:25.21Z","updated_at":"2022-06-29T03:44:25.21Z","updated_by":"","name":"đá","app_image":"","web_image":"new_1240_400_daf3740c-6cb9-4806-aff4-e87223b01ed8.PNG","link_to_screen":"https://www.youtube.com/watch?v=MTNCiCpK5Eg\u0026ab_channel=Nguy%E1%BB%85nTh%E1%BA%AFng","start_time":"2022-06-30T14:00:00Z","end_time":"2022-07-09T14:00:00Z","trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":false},{"code":"62cf00b7ddc6eae4b46d7dca","created_at":"2022-07-13T17:28:23.111Z","updated_at":"2022-12-13T04:20:11.272Z","updated_by":"\u003cinvalid Value\u003e","name":"","app_image":"","web_image":"new_1240_400_bf29abed-4924-4bed-8f4f-708167c8b88a.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":[],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fdafbf45f7f81fe892f1","created_at":"2022-12-13T04:21:03.353Z","updated_at":"2022-12-13T04:23:19.653Z","updated_by":"\u003cinvalid Value\u003e","name":"Test","app_image":"","web_image":"new_1640_680_8305fe29-ddff-484f-a5ce-8a630da71df9.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":0,"is_sub_banner":true,"status":true},{"code":"6397fe74bf45f7f81fe892f2","created_at":"2022-12-13T04:24:20.91Z","updated_at":"2022-12-13T04:26:09.22Z","updated_by":"\u003cinvalid Value\u003e","name":"test","app_image":"","web_image":"new_1640_680_4d1ed797-4e8b-440a-b943-501e076f3777.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262611000"],"display_order":1,"is_sub_banner":false,"status":true},{"code":"6397fe8abf45f7f81fe892f3","created_at":"2022-12-13T04:24:42.39Z","updated_at":"2022-12-13T04:26:11.536Z","updated_by":"\u003cinvalid Value\u003e","name":"test 1","app_image":"","web_image":"new_1640_680_8358d44c-814f-4a6b-b6af-cfef4d8b8657.PNG","link_to_screen":"","start_time":null,"end_time":null,"trade_codes":["262616000"],"display_order":1,"is_sub_banner":false,"status":true}]}
 </t>
         </is>
       </c>
@@ -2837,7 +2832,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"6738091354c531cca1bcff4e","created_at":"2024-11-16T02:53:07.402Z","updated_at":"2024-11-16T02:53:07.402Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}}
 </t>
         </is>
       </c>
@@ -3011,7 +3006,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T01:36:50.685Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T02:49:55.017Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
 </t>
         </is>
       </c>
@@ -3266,7 +3261,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T01:40:01.227Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
+          <t xml:space="preserve">{"success":true,"detail":"Success","data":{"code":"672cd46e54c531cca1bcfed0","created_at":"2024-11-07T14:53:34.011Z","updated_at":"2024-11-16T02:53:09.073Z","updated_by":"\u003cinvalid Value\u003e","name":"Holiday Promo","app_image":"new_image.png","web_image":"new_web_image.png","link_to_screen":"https://example.com/newscreen","link_to_post":"https://example.com/newpost","display_screen":"MainPage","interval":10,"numb_display_per_day":15,"numb_display_per_customer":5,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade456"],"pos_codes":["pos456"],"customer_codes":["customer456"],"display_order":1,"status":true}}
 </t>
         </is>
       </c>
@@ -3469,7 +3464,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":68,"data":[{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eddb54c531cca1bcff3a","created_at":"2024-11-16T00:56:59.571Z","updated_at":"2024-11-16T00:56:59.571Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eccb54c531cca1bcff38","created_at":"2024-11-16T00:52:27.901Z","updated_at":"2024-11-16T00:52:27.901Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":70,"data":[{"code":"6738091354c531cca1bcff4e","created_at":"2024-11-16T02:53:07.402Z","updated_at":"2024-11-16T02:53:07.402Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6738085154c531cca1bcff4c","created_at":"2024-11-16T02:49:53.312Z","updated_at":"2024-11-16T02:49:53.312Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
 </t>
         </is>
       </c>
@@ -3527,7 +3522,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":68,"data":[{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eddb54c531cca1bcff3a","created_at":"2024-11-16T00:56:59.571Z","updated_at":"2024-11-16T00:56:59.571Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737eccb54c531cca1bcff38","created_at":"2024-11-16T00:52:27.901Z","updated_at":"2024-11-16T00:52:27.901Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
+          <t xml:space="preserve">{"success":true,"detail":"Success","page":1,"page_size":10,"total":70,"data":[{"code":"6738091354c531cca1bcff4e","created_at":"2024-11-16T02:53:07.402Z","updated_at":"2024-11-16T02:53:07.402Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6738085154c531cca1bcff4c","created_at":"2024-11-16T02:49:53.312Z","updated_at":"2024-11-16T02:49:53.312Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f7ee54c531cca1bcff4a","created_at":"2024-11-16T01:39:58.886Z","updated_at":"2024-11-16T01:39:58.886Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f73054c531cca1bcff48","created_at":"2024-11-16T01:36:48.301Z","updated_at":"2024-11-16T01:36:48.301Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f6de54c531cca1bcff46","created_at":"2024-11-16T01:35:26.234Z","updated_at":"2024-11-16T01:35:26.234Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f66954c531cca1bcff44","created_at":"2024-11-16T01:33:29.995Z","updated_at":"2024-11-16T01:33:29.995Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f47d54c531cca1bcff42","created_at":"2024-11-16T01:25:17.669Z","updated_at":"2024-11-16T01:25:17.669Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f30b54c531cca1bcff40","created_at":"2024-11-16T01:19:07.462Z","updated_at":"2024-11-16T01:19:07.462Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f2b554c531cca1bcff3e","created_at":"2024-11-16T01:17:41.111Z","updated_at":"2024-11-16T01:17:41.111Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false},{"code":"6737f29554c531cca1bcff3c","created_at":"2024-11-16T01:17:09.732Z","updated_at":"2024-11-16T01:17:09.732Z","updated_by":"\u003cinvalid Value\u003e","name":"New Year Promo","app_image":"example.png","web_image":"web_example.png","link_to_screen":"https://example.com/screen","link_to_post":"https://example.com/post","display_screen":"HomePage","interval":5,"numb_display_per_day":10,"numb_display_per_customer":3,"start_time":"2024-12-01T00:00:00Z","end_time":"2024-12-31T23:59:59Z","trade_codes":["trade123"],"pos_codes":["pos123"],"customer_codes":["customer123"],"display_order":1,"status":false}]}
 </t>
         </is>
       </c>
@@ -3595,12 +3590,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-16 08:39:41</t>
+          <t>2024-11-16 09:52:55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-11-16 08:40:02</t>
+          <t>2024-11-16 09:53:10</t>
         </is>
       </c>
     </row>
